--- a/classification/droptc/bert-base-uncased/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/freeze/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490662693977356</v>
+        <v>0.3824770152568817</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6873584985733032</v>
+        <v>0.7936586141586304</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7566469311714172</v>
+        <v>0.4961709976196289</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200934290885925</v>
+        <v>0.357048511505127</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5671968460083008</v>
+        <v>0.6652438044548035</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.3574265241622925</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6259039044380188</v>
+        <v>0.5817186236381531</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.8574883341789246</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9045897126197815</v>
+        <v>0.370585024356842</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189790606498718</v>
+        <v>0.4514577984809875</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7922397255897522</v>
+        <v>0.5743659734725952</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8294130563735962</v>
+        <v>0.3595248460769653</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7710443139076233</v>
+        <v>0.7632731199264526</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.6782949566841125</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.7380328178405762</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.9132885932922363</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4121190905570984</v>
+        <v>0.887594997882843</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.8212425112724304</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.5212510228157043</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858244001865387</v>
+        <v>0.3481982350349426</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3306435942649841</v>
+        <v>0.3242250680923462</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353993684053421</v>
+        <v>0.4321870505809784</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5484864711761475</v>
+        <v>0.3868444859981537</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5361296534538269</v>
+        <v>0.7104398608207703</v>
       </c>
     </row>
     <row r="26">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.3574265241622925</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9107267260551453</v>
+        <v>0.6719433665275574</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.8588546514511108</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.882060706615448</v>
+        <v>0.617115318775177</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8114169239997864</v>
+        <v>0.7001961469650269</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.8331208229064941</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.9415286779403687</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.897392213344574</v>
+        <v>0.6815435886383057</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.727854311466217</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.7219997048377991</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8044729828834534</v>
+        <v>0.3696871101856232</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7045561671257019</v>
+        <v>0.6501018404960632</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7929969429969788</v>
+        <v>0.8517739772796631</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707226514816284</v>
+        <v>0.5033597350120544</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.670402467250824</v>
+        <v>0.6879060864448547</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5718258023262024</v>
+        <v>0.5229039192199707</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6284987926483154</v>
+        <v>0.617115318775177</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4069806933403015</v>
+        <v>0.431448757648468</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7054246068000793</v>
+        <v>0.3557891547679901</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.471246600151062</v>
+        <v>0.6601725816726685</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8250665068626404</v>
+        <v>0.3335209488868713</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6737126708030701</v>
+        <v>0.7444561719894409</v>
       </c>
     </row>
     <row r="48">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6288363337516785</v>
+        <v>0.738734245300293</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.7520973682403564</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6519913673400879</v>
+        <v>0.3241163194179535</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6126035451889038</v>
+        <v>0.7545984387397766</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8335769772529602</v>
+        <v>0.4813396334648132</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4078623354434967</v>
+        <v>0.4872709512710571</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6440590023994446</v>
+        <v>0.575036346912384</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.610332727432251</v>
+        <v>0.6678590774536133</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6725332140922546</v>
+        <v>0.7604532837867737</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6209896802902222</v>
+        <v>0.7078809142112732</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2746850550174713</v>
+        <v>0.593230664730072</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8586931824684143</v>
+        <v>0.5968354344367981</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.8468369245529175</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6260229349136353</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6803908348083496</v>
+        <v>0.4586495161056519</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7562181949615479</v>
+        <v>0.8338268399238586</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.882060706615448</v>
+        <v>0.6493476629257202</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.7971438765525818</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.4472506940364838</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6038661599159241</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6518977880477905</v>
+        <v>0.8981547355651855</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6540703177452087</v>
+        <v>0.5236226916313171</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8370208740234375</v>
+        <v>0.7261310815811157</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7261727452278137</v>
+        <v>0.7634634375572205</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7938928008079529</v>
+        <v>0.4610534906387329</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7410008311271667</v>
+        <v>0.4321870505809784</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6685434579849243</v>
+        <v>0.44339519739151</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9038986563682556</v>
+        <v>0.4472506940364838</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7260522246360779</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7317559719085693</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8463159203529358</v>
+        <v>0.5928752422332764</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8536593317985535</v>
+        <v>0.4247418940067291</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.5286588072776794</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7989922165870667</v>
+        <v>0.4489003121852875</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4271019101142883</v>
+        <v>0.3116673231124878</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.557959258556366</v>
+        <v>0.9364710450172424</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7149141430854797</v>
+        <v>0.7759062647819519</v>
       </c>
     </row>
     <row r="85">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3268075287342072</v>
+        <v>0.4472506940364838</v>
       </c>
     </row>
     <row r="86">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6917718648910522</v>
+        <v>0.6801062226295471</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8272379636764526</v>
+        <v>0.7520973682403564</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6623983979225159</v>
+        <v>0.5505408644676208</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.5985945463180542</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8139497637748718</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8752297759056091</v>
+        <v>0.6064375042915344</v>
       </c>
     </row>
     <row r="92">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4321354329586029</v>
+        <v>0.4247418940067291</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7834616303443909</v>
+        <v>0.7176029682159424</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9608252644538879</v>
+        <v>0.419495165348053</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8118965625762939</v>
+        <v>0.6926903128623962</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5722142457962036</v>
+        <v>0.6427485942840576</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6983257532119751</v>
+        <v>0.572084903717041</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5755126476287842</v>
+        <v>0.649822473526001</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7096242904663086</v>
+        <v>0.5150744915008545</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5067138671875</v>
+        <v>0.7425599098205566</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7074151635169983</v>
+        <v>0.8923540115356445</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.457660973072052</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7476043701171875</v>
+        <v>0.7370392680168152</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7846715450286865</v>
+        <v>0.7914512157440186</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8260906934738159</v>
+        <v>0.4665204584598541</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5762776732444763</v>
+        <v>0.5683652758598328</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5828590989112854</v>
+        <v>0.7548096776008606</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.7312314510345459</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4207332730293274</v>
+        <v>0.7392988801002502</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6926071047782898</v>
+        <v>0.5914053916931152</v>
       </c>
     </row>
     <row r="112">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.3954741060733795</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5328977704048157</v>
+        <v>0.7875956296920776</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3043346703052521</v>
+        <v>0.9656484127044678</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.370585024356842</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8068639636039734</v>
+        <v>0.3201080560684204</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6652425527572632</v>
+        <v>0.3905263841152191</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3175888359546661</v>
+        <v>0.9000294208526611</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6620946526527405</v>
+        <v>0.7413693070411682</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8647841811180115</v>
+        <v>0.8482358455657959</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7614847421646118</v>
+        <v>0.6489419341087341</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3705701231956482</v>
+        <v>0.7368809580802917</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.797533392906189</v>
+        <v>0.7169442176818848</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9018098115921021</v>
+        <v>0.6790169477462769</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3153397142887115</v>
+        <v>0.7553455829620361</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7293035984039307</v>
+        <v>0.6042778491973877</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.4714813828468323</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7714985013008118</v>
+        <v>0.5860459804534912</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5525924563407898</v>
+        <v>0.8264939785003662</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6111173629760742</v>
+        <v>0.5904833078384399</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.8613095283508301</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7970415353775024</v>
+        <v>0.6306592226028442</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.784224808216095</v>
+        <v>0.8260471820831299</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7282664179801941</v>
+        <v>0.617115318775177</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8868401646614075</v>
+        <v>0.8681890964508057</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.700822114944458</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5518166422843933</v>
+        <v>0.887594997882843</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.759843647480011</v>
+        <v>0.402833491563797</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8573207855224609</v>
+        <v>0.68114173412323</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3697643876075745</v>
+        <v>0.5981202721595764</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7601314783096313</v>
+        <v>0.7975214123725891</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5919524431228638</v>
+        <v>0.7356417179107666</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7240288257598877</v>
+        <v>0.5349178314208984</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9049091935157776</v>
+        <v>0.497968852519989</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.379835844039917</v>
+        <v>0.446289449930191</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4246189892292023</v>
+        <v>0.4533370137214661</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.6608253717422485</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4576249718666077</v>
+        <v>0.320218414068222</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6622561812400818</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3433354496955872</v>
+        <v>0.7016703486442566</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6579011678695679</v>
+        <v>0.8253501653671265</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7369323968887329</v>
+        <v>0.4489003121852875</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7374277710914612</v>
+        <v>0.896747350692749</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7626975774765015</v>
+        <v>0.8004224300384521</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3801847696304321</v>
+        <v>0.7899362444877625</v>
       </c>
     </row>
     <row r="156">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6145060062408447</v>
+        <v>0.7872248888015747</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7255806922912598</v>
+        <v>0.8844770789146423</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8444327712059021</v>
+        <v>0.6213797330856323</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4688326120376587</v>
+        <v>0.917681872844696</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5629863142967224</v>
+        <v>0.4904224276542664</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5346721410751343</v>
+        <v>0.8531538844108582</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9301773309707642</v>
+        <v>0.604948878288269</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6674061417579651</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.68412184715271</v>
+        <v>0.8553645610809326</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6451618075370789</v>
+        <v>0.4321870505809784</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6269026398658752</v>
+        <v>0.3116673231124878</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7140589952468872</v>
+        <v>0.8908708095550537</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.4489003121852875</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8616759777069092</v>
+        <v>0.8379007577896118</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.6900244355201721</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.437300056219101</v>
+        <v>0.8052740097045898</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8192811012268066</v>
+        <v>0.3696871101856232</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3000292479991913</v>
+        <v>0.6243022084236145</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8341501951217651</v>
+        <v>0.7279282212257385</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5952574014663696</v>
+        <v>0.926979660987854</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5513302087783813</v>
+        <v>0.721510648727417</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7109676003456116</v>
+        <v>0.7125292420387268</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.3878018856048584</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6451894044876099</v>
+        <v>0.5336402058601379</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3085410296916962</v>
+        <v>0.7888619899749756</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3098060488700867</v>
+        <v>0.8714160323143005</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.732082724571228</v>
+        <v>0.6019797325134277</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3678449988365173</v>
+        <v>0.302583634853363</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.6283412575721741</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7610421776771545</v>
+        <v>0.8101544380187988</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4783370792865753</v>
+        <v>0.3378060758113861</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5014992952346802</v>
+        <v>0.6064375042915344</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8508758544921875</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.2578260898590088</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4298675954341888</v>
+        <v>0.9415286779403687</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8011881113052368</v>
+        <v>0.5066333413124084</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4789687097072601</v>
+        <v>0.4262206852436066</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6837407350540161</v>
+        <v>0.7973703742027283</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.5722531080245972</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5662136673927307</v>
+        <v>0.660480260848999</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.829389750957489</v>
+        <v>0.6826075911521912</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6992573142051697</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9329718351364136</v>
+        <v>0.51149582862854</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4429530799388885</v>
+        <v>0.8333524465560913</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7625828385353088</v>
+        <v>0.7888339757919312</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.453845888376236</v>
+        <v>0.7830464839935303</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6824764609336853</v>
+        <v>0.3589911162853241</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7524481415748596</v>
+        <v>0.777280330657959</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.9087885618209839</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8830776214599609</v>
+        <v>0.6830112934112549</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6041008830070496</v>
+        <v>0.7480465769767761</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3361645042896271</v>
+        <v>0.9431949257850647</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7532668113708496</v>
+        <v>0.7146923542022705</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.6738568544387817</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7079700827598572</v>
+        <v>0.7527027130126953</v>
       </c>
     </row>
   </sheetData>
